--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -14,10 +14,10 @@
     <sheet name="acquisition_instrument_model" r:id="rId8" sheetId="6"/>
     <sheet name="source_storage_duration_unit" r:id="rId9" sheetId="7"/>
     <sheet name="time_since_acquisition_instrume" r:id="rId10" sheetId="8"/>
-    <sheet name="mass_spectrometry_ionization_te" r:id="rId11" sheetId="9"/>
-    <sheet name="mass_analysis_polarity" r:id="rId12" sheetId="10"/>
-    <sheet name="ion_mobility" r:id="rId13" sheetId="11"/>
-    <sheet name="mass_spectrometry_scan_mode" r:id="rId14" sheetId="12"/>
+    <sheet name="ms_ionization_technique" r:id="rId11" sheetId="9"/>
+    <sheet name="ms_scan_mode" r:id="rId12" sheetId="10"/>
+    <sheet name="mass_analysis_polarity" r:id="rId13" sheetId="11"/>
+    <sheet name="ion_mobility" r:id="rId14" sheetId="12"/>
     <sheet name="matrix_deposition_method" r:id="rId15" sheetId="13"/>
     <sheet name="preparation_instrument_vendor" r:id="rId16" sheetId="14"/>
     <sheet name="preparation_instrument_model" r:id="rId17" sheetId="15"/>
@@ -145,32 +145,38 @@
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) The polarity of the mass analysis (positive or negative ion modes).</t>
+        <t>(Required) MS (mass spectrometry) scan mode refers to the number of steps in the
+separation of fragments.</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) The low value of the scanned mass range. (unitless)</t>
+        <t>(Required) The polarity of the mass analysis (positive or negative ion modes).</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) The high value of the scanned mass range. (unitless)</t>
+        <t>The low value of the scanned mass-to-charge range, for MS1. (unitless)</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
+      <text>
+        <t>The high value of the scanned mass-to-charge range, for MS1. (unitless)</t>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="1">
       <text>
         <t>(Required) The mass resolving power m/∆m, where ∆m is defined as the full width
 at half-maximum (FWHM) for a given peak with a specified mass-to-charge (m/z).
 (unitless)</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="U1" authorId="1">
       <text>
         <t>(Required) The peak (m/z) used to calculate the resolving power.</t>
       </text>
     </comment>
-    <comment ref="U1" authorId="1">
+    <comment ref="V1" authorId="1">
       <text>
         <t>Specifies which technology was used for ion mobility spectrometry. Technologies
 for measuring ion mobility: Traveling Wave Ion Mobility Spectrometry (TWIMS),
@@ -178,12 +184,6 @@
 Mobility Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS),
 Structures for Lossless Ion Manipulations (SLIM), and cyclic Ion Mobility
 Spectrometry (cIMS).</t>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="1">
-      <text>
-        <t>(Required) Scan mode refers to the number of steps in the separation of
-fragments.</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
@@ -216,6 +216,13 @@
     </comment>
     <comment ref="AA1" authorId="1">
       <text>
+        <t>(Required) A DOI to a protocols.io protocol describing the software and
+database(s) used to process the raw data. Example:
+https://dx.doi.org/10.17504/protocols.io.bsu5ney6</t>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="1">
+      <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
@@ -226,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="332">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -888,7 +895,7 @@
     <t>data_path</t>
   </si>
   <si>
-    <t>mass_spectrometry_ionization_technique</t>
+    <t>ms_ionization_technique</t>
   </si>
   <si>
     <t>LDI</t>
@@ -933,6 +940,27 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000279</t>
   </si>
   <si>
+    <t>ms_scan_mode</t>
+  </si>
+  <si>
+    <t>MS3</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000230</t>
+  </si>
+  <si>
+    <t>MS2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000229</t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
+  </si>
+  <si>
     <t>mass_analysis_polarity</t>
   </si>
   <si>
@@ -1005,27 +1033,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000224</t>
   </si>
   <si>
-    <t>mass_spectrometry_scan_mode</t>
-  </si>
-  <si>
-    <t>MS3</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000230</t>
-  </si>
-  <si>
-    <t>MS2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000229</t>
-  </si>
-  <si>
-    <t>MS1</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
-  </si>
-  <si>
     <t>matrix_deposition_method</t>
   </si>
   <si>
@@ -1194,6 +1201,9 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_64340</t>
   </si>
   <si>
+    <t>analysis_protocol_doi</t>
+  </si>
+  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -1212,7 +1222,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-16T20:50:47-07:00</t>
+    <t>2023-10-18T12:04:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1271,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -1287,6 +1297,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1313,7 +1324,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1333,19 +1344,20 @@
     <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="37.7578125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="21.265625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="30.8203125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="31.69921875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="21.0546875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="30.70703125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="11.98046875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="29.16015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="23.15625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="14.55859375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="21.265625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="30.8203125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="31.69921875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="21.0546875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="30.70703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="11.98046875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" style="24" width="24.92578125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" style="25" width="29.08203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" style="26" width="28.48828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" style="27" width="18.109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="20.17578125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1401,19 +1413,19 @@
         <v>242</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="W1" t="s" s="1">
         <v>266</v>
@@ -1430,10 +1442,13 @@
       <c r="AA1" t="s" s="1">
         <v>322</v>
       </c>
+      <c r="AB1" t="s" s="1">
+        <v>323</v>
+      </c>
     </row>
     <row r="2">
-      <c r="AA2" t="s">
-        <v>323</v>
+      <c r="AB2" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1468,14 +1483,13 @@
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'mass_spectrometry_ionization_technique'!$A$1:$A$8</formula1>
+      <formula1>'ms_ionization_technique'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'ms_scan_mode'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'mass_analysis_polarity'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
-      <formula1>-3.4028235E38</formula1>
-      <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -1489,11 +1503,12 @@
       <formula1>-3.4028235E38</formula1>
       <formula2>3.4028235E38</formula2>
     </dataValidation>
-    <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'ion_mobility'!$A$1:$A$6</formula1>
+    <dataValidation type="decimal" operator="between" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
+      <formula1>-3.4028235E38</formula1>
+      <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'mass_spectrometry_scan_mode'!$A$1:$A$3</formula1>
+      <formula1>'ion_mobility'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="W2:W1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'matrix_deposition_method'!$A$1:$A$5</formula1>
@@ -1553,6 +1568,43 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1561,86 +1613,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" t="s">
         <v>265</v>
       </c>
     </row>
@@ -1981,16 +1996,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
@@ -1998,13 +2013,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="336">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -265,6 +265,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -325,12 +331,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -568,12 +568,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -586,6 +580,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -910,6 +910,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000281</t>
   </si>
   <si>
+    <t>HESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000289</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
@@ -934,6 +940,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000280</t>
   </si>
   <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C19363</t>
+  </si>
+  <si>
     <t>MALDI-2</t>
   </si>
   <si>
@@ -1069,6 +1081,12 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1081,12 +1099,6 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1222,7 +1234,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-18T12:04:03-07:00</t>
+    <t>2023-10-20T20:00:33-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1407,48 +1419,48 @@
         <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="AB2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1495,7 @@
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'ms_ionization_technique'!$A$1:$A$8</formula1>
+      <formula1>'ms_ionization_technique'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'ms_scan_mode'!$A$1:$A$3</formula1>
@@ -1539,26 +1551,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1576,26 +1588,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1613,50 +1625,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1674,42 +1686,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1727,58 +1739,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1804,26 +1816,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
@@ -1844,66 +1856,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -1921,58 +1933,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1996,16 +2008,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
@@ -2013,13 +2025,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2970,7 +2982,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3010,23 +3022,23 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>232</v>
@@ -3038,6 +3050,22 @@
       </c>
       <c r="B8" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -36,11 +36,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -1234,7 +1235,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-20T20:00:33-07:00</t>
+    <t>2023-10-27T18:09:33-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="338">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -260,12 +260,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -368,12 +362,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -392,6 +380,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -638,6 +632,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -692,6 +692,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -1235,7 +1241,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:09:33-07:00</t>
+    <t>2023-11-02T15:46:29-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1387,87 +1393,87 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="AB2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1479,7 +1485,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1552,26 +1558,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1589,26 +1595,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1626,50 +1632,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1687,42 +1693,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -1740,58 +1746,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1817,106 +1823,106 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -1934,58 +1940,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2009,30 +2015,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +2048,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2326,14 +2332,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2351,90 +2349,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2452,12 +2450,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2475,114 +2473,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2590,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2600,290 +2598,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2901,42 +2915,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2954,26 +2968,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2991,82 +3005,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -1241,7 +1241,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:46:29-07:00</t>
+    <t>2023-11-07T20:06:52-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="334">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -266,18 +266,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -290,22 +290,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -332,12 +326,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -350,6 +338,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -362,18 +356,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -386,10 +368,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -404,10 +386,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -422,12 +404,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -446,18 +446,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -1241,7 +1229,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:06:52-08:00</t>
+    <t>2023-11-15T17:13:53-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1393,87 +1381,90 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>219</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>220</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>221</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>222</v>
-      </c>
       <c r="P1" t="s" s="1">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R1" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="V1" t="s" s="1">
         <v>255</v>
       </c>
-      <c r="S1" t="s" s="1">
-        <v>256</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>257</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>258</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>259</v>
-      </c>
       <c r="W1" t="s" s="1">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
       <c r="AB2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1558,26 +1549,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1595,26 +1586,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1632,50 +1623,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1693,42 +1684,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1746,58 +1737,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -1815,114 +1806,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1940,58 +1931,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2015,30 +2006,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" t="s">
         <v>332</v>
-      </c>
-      <c r="C1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" t="s">
         <v>333</v>
-      </c>
-      <c r="C2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D2" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2316,22 +2307,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2349,90 +2324,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2450,12 +2425,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2473,114 +2448,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2598,306 +2573,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2915,42 +2890,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2968,26 +2943,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3005,82 +2980,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -1229,7 +1229,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:13:53-08:00</t>
+    <t>2023-11-24T09:46:36-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="356">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -527,6 +527,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -569,6 +581,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -605,6 +629,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -638,6 +668,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -656,18 +692,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -692,6 +752,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -752,6 +818,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -1076,12 +1148,6 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
-    <t>In-House</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1229,7 +1295,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:46:36-08:00</t>
+    <t>2024-01-29T14:15:13-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1337,34 +1403,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="23.15625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="14.55859375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="21.265625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="30.8203125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="31.69921875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="21.0546875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="30.70703125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="11.98046875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="24.92578125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="29.08203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="18.109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="20.17578125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="19.97265625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="12.55859375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="26.5859375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="27.34375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="18.1640625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="26.48828125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="10.33203125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="21.50390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="24.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="15.62109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1390,75 +1456,75 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="AB2" t="s">
-        <v>326</v>
+      <c r="AB2" t="s" s="29">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -1473,10 +1539,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1490,7 +1556,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'ms_ionization_technique'!$A$1:$A$10</formula1>
@@ -1548,27 +1614,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" t="s">
-        <v>239</v>
+      <c r="A1" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>263</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" t="s">
-        <v>241</v>
+      <c r="A2" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>265</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
+      <c r="A3" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1585,27 +1651,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" t="s">
-        <v>246</v>
+      <c r="A1" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>270</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
+      <c r="A2" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>272</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" t="s">
-        <v>250</v>
+      <c r="A3" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -1622,51 +1688,51 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" t="s">
-        <v>257</v>
+      <c r="A1" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>281</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" t="s">
-        <v>259</v>
+      <c r="A2" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>283</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" t="s">
-        <v>261</v>
+      <c r="A3" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>285</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" t="s">
-        <v>263</v>
+      <c r="A4" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>287</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" t="s">
-        <v>265</v>
+      <c r="A5" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>289</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" t="s">
-        <v>267</v>
+      <c r="A6" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1683,43 +1749,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" t="s">
-        <v>270</v>
+      <c r="A1" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>294</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" t="s">
-        <v>272</v>
+      <c r="A2" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>296</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" t="s">
-        <v>274</v>
+      <c r="A3" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>298</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" t="s">
-        <v>276</v>
+      <c r="A4" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>300</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" t="s">
-        <v>278</v>
+      <c r="A5" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -1736,59 +1802,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" t="s">
-        <v>281</v>
+      <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
+      <c r="A2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" t="s">
-        <v>272</v>
+      <c r="A3" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>296</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" t="s">
-        <v>283</v>
+      <c r="A4" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" t="s">
-        <v>285</v>
+      <c r="A5" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>307</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
+      <c r="A6" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>126</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" t="s">
-        <v>287</v>
+      <c r="A7" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -1805,115 +1871,115 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
+      <c r="A1" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" t="s">
-        <v>272</v>
+      <c r="A2" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>296</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" t="s">
-        <v>290</v>
+      <c r="A3" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>312</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" t="s">
-        <v>292</v>
+      <c r="A4" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>314</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
+      <c r="A5" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>183</v>
+      <c r="A6" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" t="s">
-        <v>294</v>
+      <c r="A7" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>316</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B8" t="s">
-        <v>296</v>
+      <c r="A8" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>318</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" t="s">
-        <v>298</v>
+      <c r="A9" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>320</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>299</v>
-      </c>
-      <c r="B10" t="s">
-        <v>300</v>
+      <c r="A10" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>322</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B11" t="s">
-        <v>302</v>
+      <c r="A11" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>324</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" t="s">
-        <v>304</v>
+      <c r="A12" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>326</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B13" t="s">
-        <v>306</v>
+      <c r="A13" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>328</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" t="s">
-        <v>308</v>
+      <c r="A14" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1930,59 +1996,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" t="s">
-        <v>311</v>
+      <c r="A1" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>333</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" t="s">
-        <v>313</v>
+      <c r="A2" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>335</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" t="s">
-        <v>315</v>
+      <c r="A3" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>337</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" t="s">
-        <v>317</v>
+      <c r="A4" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>339</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" t="s">
-        <v>319</v>
+      <c r="A5" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>341</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" t="s">
-        <v>321</v>
+      <c r="A6" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>343</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" t="s">
-        <v>323</v>
+      <c r="A7" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -1998,38 +2064,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" t="s">
-        <v>332</v>
+      <c r="A1" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>354</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" t="s">
-        <v>333</v>
+      <c r="B2" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2046,266 +2112,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -2323,90 +2389,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -2424,12 +2490,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -2440,122 +2506,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2565,314 +2671,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
+      <c r="A2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
+      <c r="A3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
+      <c r="A4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
+      <c r="A5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
+      <c r="A6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
+      <c r="A7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
+      <c r="A8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
+      <c r="A9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
+      <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
+      <c r="A12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
+      <c r="A14" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
+      <c r="A15" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
+      <c r="A16" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
+      <c r="A17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
+      <c r="A18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
+      <c r="A19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
+      <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>169</v>
+      <c r="A22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>171</v>
+      <c r="A23" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
+      <c r="A24" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
+      <c r="A25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
+      <c r="A26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
+      <c r="A27" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
+      <c r="A28" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>183</v>
+      <c r="A29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
+      <c r="A31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
+      <c r="A32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
+      <c r="A33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>195</v>
+      <c r="A35" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>197</v>
+      <c r="A36" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>199</v>
+      <c r="A37" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
+      <c r="A38" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2889,43 +3051,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
+      <c r="A2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
+      <c r="A3" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
+      <c r="A4" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
+      <c r="A5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2942,27 +3104,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2979,83 +3141,83 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" t="s">
-        <v>220</v>
+      <c r="A1" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>244</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" t="s">
-        <v>222</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>224</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>248</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
+      <c r="A4" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>250</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
+      <c r="A5" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>229</v>
+      <c r="B6" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>230</v>
+      <c r="B7" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" t="s">
-        <v>232</v>
+      <c r="A8" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
+      <c r="A9" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" t="s">
-        <v>236</v>
+      <c r="A10" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="380">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -344,6 +344,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -449,6 +455,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -569,6 +581,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -623,6 +641,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -692,6 +716,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
@@ -752,6 +782,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -836,6 +872,12 @@
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
+  </si>
+  <si>
     <t>MIBIscope</t>
   </si>
   <si>
@@ -1148,6 +1190,12 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>Roche Diagnostics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025096</t>
+  </si>
+  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1175,6 +1223,12 @@
     <t>https://identifiers.org/RRID:SCR_023729</t>
   </si>
   <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
     <t>Chromium Controller</t>
   </si>
   <si>
@@ -1211,6 +1265,18 @@
     <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
+    <t>Discovery Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025097</t>
+  </si>
+  <si>
+    <t>ST5020 Multistainer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025021</t>
+  </si>
+  <si>
     <t>Chromium iX</t>
   </si>
   <si>
@@ -1274,6 +1340,12 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_64340</t>
   </si>
   <si>
+    <t>DMACA (4-(dimethylamino)cinnamic acid)</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MESH/C481008</t>
+  </si>
+  <si>
     <t>analysis_protocol_doi</t>
   </si>
   <si>
@@ -1295,7 +1367,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:15:13-08:00</t>
+    <t>2024-03-21T14:23:20-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1447,102 +1519,102 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>347</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$48</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1590,13 +1662,13 @@
       <formula1>'matrix_deposition_method'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_matrix'!$A$1:$A$7</formula1>
+      <formula1>'preparation_matrix'!$A$1:$A$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1615,26 +1687,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1652,26 +1724,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1689,50 +1761,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -1750,42 +1822,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1867,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1803,58 +1875,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>305</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>126</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>309</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1872,114 +1960,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>205</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>316</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>330</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +2101,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1997,58 +2109,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>333</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>335</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>337</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>339</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>341</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>345</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -2072,30 +2192,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2225,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2375,6 +2495,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2382,7 +2510,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2390,90 +2518,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2491,12 +2627,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2642,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2514,154 +2650,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2823,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2679,362 +2831,386 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3052,42 +3228,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3105,26 +3281,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3142,50 +3318,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7">
@@ -3193,31 +3369,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="388">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -599,6 +599,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -686,16 +692,142 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
   </si>
   <si>
     <t>Axio Observer 7</t>
@@ -704,12 +836,6 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -728,34 +854,16 @@
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -770,12 +878,6 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -818,12 +920,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -836,42 +932,12 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
-  </si>
-  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -884,18 +950,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -908,36 +962,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1223,12 +1247,6 @@
     <t>https://identifiers.org/RRID:SCR_023729</t>
   </si>
   <si>
-    <t>EVOS M7000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025070</t>
-  </si>
-  <si>
     <t>Chromium Controller</t>
   </si>
   <si>
@@ -1283,6 +1301,12 @@
     <t>https://identifiers.org/RRID:SCR_024536</t>
   </si>
   <si>
+    <t>Chromium Connect</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025146</t>
+  </si>
+  <si>
     <t>M5 Sprayer</t>
   </si>
   <si>
@@ -1367,7 +1391,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-21T14:23:20-07:00</t>
+    <t>2024-04-01T14:50:21-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1528,67 +1552,67 @@
         <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
@@ -1596,7 +1620,7 @@
         <v>42</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -1611,10 +1635,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$48</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1665,7 +1689,7 @@
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$17</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_matrix'!$A$1:$A$8</formula1>
@@ -1687,26 +1711,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1724,26 +1748,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1761,50 +1785,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -1822,42 +1846,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1883,18 +1907,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
@@ -1907,42 +1931,42 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1976,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,138 +1984,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>151</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>329</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>330</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2109,66 +2141,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2192,16 +2224,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
@@ -2209,13 +2241,13 @@
         <v>42</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2674,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2816,6 +2848,14 @@
         <v>142</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2823,7 +2863,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2831,386 +2871,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3228,42 +3292,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3281,26 +3345,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3318,42 +3382,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
@@ -3361,7 +3425,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7">
@@ -3369,31 +3433,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="398">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -296,6 +296,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -392,6 +398,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -473,22 +485,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -515,27 +557,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -584,7 +614,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -692,6 +722,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1088,6 +1124,12 @@
     <t>ms_scan_mode</t>
   </si>
   <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
+  </si>
+  <si>
     <t>MS3</t>
   </si>
   <si>
@@ -1100,12 +1142,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000229</t>
   </si>
   <si>
-    <t>MS1</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
-  </si>
-  <si>
     <t>mass_analysis_polarity</t>
   </si>
   <si>
@@ -1115,18 +1151,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000276</t>
   </si>
   <si>
+    <t>Positive ion mode</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000277</t>
+  </si>
+  <si>
     <t>Negative and positive ion mode</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000278</t>
   </si>
   <si>
-    <t>Positive ion mode</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000277</t>
-  </si>
-  <si>
     <t>mass_to_charge_range_low_value</t>
   </si>
   <si>
@@ -1148,6 +1184,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000227</t>
   </si>
   <si>
+    <t>TWIMS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000223</t>
+  </si>
+  <si>
     <t>DTIMS</t>
   </si>
   <si>
@@ -1160,12 +1202,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000226</t>
   </si>
   <si>
-    <t>TWIMS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000223</t>
-  </si>
-  <si>
     <t>TIMS</t>
   </si>
   <si>
@@ -1187,10 +1223,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000240</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+    <t>Sublimation</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000242</t>
   </si>
   <si>
     <t>Robotic spotting</t>
@@ -1205,12 +1241,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000241</t>
   </si>
   <si>
-    <t>Sublimation</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000242</t>
-  </si>
-  <si>
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
@@ -1391,7 +1421,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:50:21-07:00</t>
+    <t>2024-08-03T11:44:06-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1543,93 +1573,93 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1638,7 +1668,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1711,26 +1741,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -1748,26 +1778,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1785,50 +1815,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1846,42 +1876,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>318</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -1899,74 +1929,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>318</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -1984,146 +2014,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>318</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2141,66 +2171,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -2224,30 +2254,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2287,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2535,6 +2565,22 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2542,7 +2588,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2550,98 +2596,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2659,12 +2729,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2682,178 +2752,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2871,410 +2941,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3292,42 +3370,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3345,26 +3423,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3382,50 +3460,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7">
@@ -3433,31 +3511,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="404">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -374,6 +374,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -398,6 +404,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -473,18 +485,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -497,13 +509,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -539,24 +557,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -659,6 +677,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1256,12 +1280,6 @@
     <t>https://identifiers.org/RRID:SCR_023734</t>
   </si>
   <si>
-    <t>10x Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023672</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1421,7 +1439,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:44:06-07:00</t>
+    <t>2025-01-08T12:44:56-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1573,76 +1591,76 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2">
@@ -1650,22 +1668,22 @@
         <v>44</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1741,26 +1759,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -1778,26 +1796,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1815,50 +1833,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -1876,42 +1894,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -1929,74 +1947,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>340</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>341</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2014,146 +2032,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2171,66 +2189,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -2254,16 +2272,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
@@ -2271,13 +2289,13 @@
         <v>44</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2305,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2581,6 +2599,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2588,7 +2622,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2596,122 +2630,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2729,12 +2771,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2744,7 +2786,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2752,178 +2794,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2941,418 +2991,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3370,42 +3420,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3423,26 +3473,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3460,42 +3510,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
@@ -3503,7 +3553,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7">
@@ -3511,31 +3561,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -57,11 +57,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -110,8 +110,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="442">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -320,10 +320,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -422,6 +422,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -476,6 +482,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -587,40 +605,106 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
   </si>
   <si>
     <t>Standard BioTools (Fluidigm)</t>
@@ -629,12 +713,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -647,18 +725,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -683,48 +749,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -776,6 +812,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -794,12 +836,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -812,12 +872,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -830,12 +902,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -860,6 +950,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -902,6 +998,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -980,6 +1082,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1022,6 +1130,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1439,7 +1553,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:44:56-08:00</t>
+    <t>2025-04-24T10:50:17-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1591,76 +1705,76 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>395</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2">
@@ -1668,13 +1782,13 @@
         <v>44</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>396</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1683,10 +1797,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1759,26 +1873,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -1796,26 +1910,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -1833,50 +1947,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>325</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>329</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>333</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -1894,42 +2008,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>336</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>340</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>342</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -1947,74 +2061,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>347</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>349</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -2032,146 +2146,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>352</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>354</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>356</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>358</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>362</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>364</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>370</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>372</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>374</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>376</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -2189,66 +2303,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>379</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>381</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>383</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>385</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>387</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>389</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>391</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>393</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -2272,16 +2386,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>402</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2">
@@ -2289,13 +2403,13 @@
         <v>44</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>403</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -2305,7 +2419,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2613,6 +2727,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2630,130 +2768,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2771,12 +2909,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2924,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2794,186 +2932,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +3145,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2991,418 +3153,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3420,42 +3694,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3473,26 +3747,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3510,42 +3784,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
@@ -3553,7 +3827,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7">
@@ -3561,31 +3835,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="446">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -974,6 +974,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1043,7 +1055,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1553,7 +1565,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:50:17-07:00</t>
+    <t>2025-05-12T09:55:58-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1717,64 +1729,64 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2">
@@ -1782,7 +1794,7 @@
         <v>44</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1812,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1873,26 +1885,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -1910,26 +1922,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -1947,50 +1959,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2020,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
@@ -2024,26 +2036,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2093,18 +2105,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7">
@@ -2125,10 +2137,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -2146,10 +2158,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
@@ -2162,10 +2174,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
@@ -2178,10 +2190,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6">
@@ -2194,98 +2206,98 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2303,66 +2315,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -2386,16 +2398,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2">
@@ -2403,13 +2415,13 @@
         <v>44</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3157,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3601,26 +3613,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -3677,6 +3689,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3694,42 +3722,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3747,26 +3775,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3784,42 +3812,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6">
@@ -3827,7 +3855,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7">
@@ -3835,31 +3863,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="458">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -392,6 +392,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -629,6 +635,18 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -782,6 +800,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -968,6 +992,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -1118,6 +1148,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1565,7 +1601,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T09:55:58-07:00</t>
+    <t>2025-06-24T10:41:32-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1717,76 +1753,76 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2">
@@ -1794,13 +1830,13 @@
         <v>44</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1809,10 +1845,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$28</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$71</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1885,26 +1921,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -1922,26 +1958,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -1959,50 +1995,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -2020,42 +2056,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -2073,74 +2109,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -2158,146 +2194,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -2315,66 +2351,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -2398,16 +2434,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
@@ -2415,13 +2451,13 @@
         <v>44</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2431,7 +2467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2763,6 +2799,14 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2780,130 +2824,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2921,12 +2965,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +2980,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2944,210 +2988,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3217,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3165,546 +3225,570 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3722,42 +3806,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3775,26 +3859,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3812,42 +3896,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
@@ -3855,7 +3939,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7">
@@ -3863,31 +3947,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -36,106 +36,112 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
@@ -224,8 +230,8 @@
     </comment>
     <comment ref="AB1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -234,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="491">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -260,34 +266,172 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -296,36 +440,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -356,16 +470,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -374,30 +482,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -428,18 +518,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -452,12 +530,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -470,34 +542,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -761,12 +815,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -914,6 +980,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1034,6 +1106,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1124,6 +1202,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1154,6 +1235,12 @@
     <t>https://identifiers.org/RRID:SCR_027095</t>
   </si>
   <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1166,6 +1253,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1190,6 +1283,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1307,6 +1406,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000279</t>
   </si>
   <si>
+    <t>nESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000456</t>
+  </si>
+  <si>
     <t>ms_scan_mode</t>
   </si>
   <si>
@@ -1601,7 +1706,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-24T10:41:32-07:00</t>
+    <t>2025-10-20T10:53:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1753,90 +1858,90 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>449</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>450</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$42</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1845,10 +1950,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$28</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$71</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1865,7 +1970,7 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'ms_ionization_technique'!$A$1:$A$10</formula1>
+      <formula1>'ms_ionization_technique'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'ms_scan_mode'!$A$1:$A$3</formula1>
@@ -1921,26 +2026,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>359</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>361</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>363</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -1958,26 +2063,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>368</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>370</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -1995,50 +2100,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>377</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>379</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>381</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>383</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>385</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>387</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -2056,42 +2161,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>390</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>392</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>394</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>396</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -2109,74 +2214,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>399</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>401</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>403</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -2194,146 +2299,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>406</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>408</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>311</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>410</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>412</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>414</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>416</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>418</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>420</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>422</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>424</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>426</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>428</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>430</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -2351,66 +2456,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>433</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>435</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>437</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>439</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>441</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>443</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>445</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>447</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -2434,30 +2539,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>456</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>457</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2572,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2807,6 +2912,70 @@
       </c>
       <c r="B42" t="s" s="0">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2824,130 +2993,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2965,12 +3134,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +3149,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2988,226 +3157,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>180</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3402,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3225,570 +3410,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>155</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>156</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>307</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>317</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>319</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>321</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3806,42 +4039,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>329</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>331</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>333</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3859,26 +4092,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>327</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>329</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>331</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +4121,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3896,50 +4129,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>342</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>344</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>346</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>348</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>349</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7">
@@ -3947,31 +4180,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>350</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>352</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>354</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>356</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -146,24 +146,27 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) The ionization approach (i.e., sample probing method) for performing
-imaging mass spectrometry.</t>
+        <t>(Required) The ionization technique used in imaging mass spectrometry, which
+refers to the method employed to probe the sample. Example: MALDI</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) MS (mass spectrometry) scan mode refers to the number of steps in the
-separation of fragments.</t>
+        <t>(Required) The mode of mass spectrometry (MS) scanning, which refers to the
+number of steps involved in the separation of fragments during the analysis.
+Example: MS1</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) The polarity of the mass analysis (positive or negative ion modes).</t>
+        <t>(Required) The polarity mode used in mass analysis, indicating whether positive
+or negative ion modes are employed. Example: Positive ion mode</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>The low value of the scanned mass-to-charge range, for MS1. (unitless)</t>
+        <t>The low value of the scanned mass-to-charge range for MS1. This value is
+unitless. Example: 100</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
@@ -173,52 +176,57 @@
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) The mass resolving power m/∆m, where ∆m is defined as the full width
-at half-maximum (FWHM) for a given peak with a specified mass-to-charge (m/z).
-(unitless)</t>
+        <t>(Required) The mass resolving power, denoted as m/∆m, where ∆m is defined as the
+full width at half-maximum (FWHM) for a given peak with a specified
+mass-to-charge ratio (m/z). This measurement is unitless. Example: 60000</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) The peak (m/z) used to calculate the resolving power.</t>
+        <t>(Required) The peak mass-to-charge ratio (m/z) used to calculate the resolving
+power. Example: 400.2</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>Specifies which technology was used for ion mobility spectrometry. Technologies
-for measuring ion mobility: Traveling Wave Ion Mobility Spectrometry (TWIMS),
-Trapped Ion Mobility Spectrometry (TIMS), High Field Asymmetric waveform ion
-Mobility Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS),
-Structures for Lossless Ion Manipulations (SLIM), and cyclic Ion Mobility
-Spectrometry (cIMS).</t>
+        <t>The specific technology employed for ion mobility spectrometry. Available
+technologies include Traveling Wave Ion Mobility Spectrometry (TWIMS), Trapped
+Ion Mobility Spectrometry (TIMS), High Field Asymmetric Waveform Ion Mobility
+Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS), Structures
+for Lossless Ion Manipulations (SLIM), and cyclic Ion Mobility Spectrometry
+(cIMS). Example: TIMS</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>(Required) Common methods of depositing matrix for assisting in desorption and
-ionization in imaging mass spectrometry include robotic spotting, electrospray
-deposition, and sublimation.</t>
+        <t>(Required) The method used for matrix deposition to aid in desorption and
+ionization in imaging mass spectrometry. Common techniques include robotic
+spotting, electrospray deposition, and sublimation. Example: Robotic spraying</t>
       </text>
     </comment>
     <comment ref="X1" authorId="1">
       <text>
-        <t>The manufacturer of the instrument used to prepare (staining/processing) the
-sample for the assay. If an automatic slide staining method was indicated this
-field should list the manufacturer of the instrument.</t>
+        <t>The company that manufactures the instrument used to prepare the sample (e.g.,
+for staining or other processing steps) prior to the assay. If the instrument
+was custom-built or developed internally, enter "In-House". If no sample
+preparation occurred, enter "Not applicable". Example: 10X Genomics</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>Manufacturers of a staining system instrument may offer various versions
-(models) of that instrument with different features. Differences in features or
-sensitivities may be relevant to processing or interpretation of the data.</t>
+        <t>The specific model of the instrument used for sample preparation, such as
+staining. Manufacturers may offer multiple models with varying features or
+sensitivities, which can influence how the sample is processed and how the
+resulting data is interpreted. If no sample preparation occurred, enter "Not
+applicable". Example: Chromium X</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
       <text>
-        <t>(Required) The matrix is a compound of crystallized molecules that acts like a
-buffer between the sample and the ionizing probe. It also helps ionize the
-sample, carrying it along the flight tube so it can be detected.</t>
+        <t>(Required) The preparation matrix, which is a compound of crystallized molecules
+that functions as a buffer between the sample and the ionizing probe. This
+matrix also aids in ionizing the sample, facilitating its movement along the
+flight tube for detection. Example: DMACA (4-(dimethylamino)cinnamic acid)</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="1">
@@ -1706,7 +1714,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-20T10:53:03-07:00</t>
+    <t>2025-10-20T15:16:41-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="495">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -316,6 +316,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -571,18 +577,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1576,6 +1582,12 @@
     <t>https://identifiers.org/RRID:SCR_019326</t>
   </si>
   <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
     <t>Chromium X</t>
   </si>
   <si>
@@ -1714,7 +1726,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-20T15:16:41-07:00</t>
+    <t>2025-11-19T14:41:54-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1866,90 +1878,90 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2009,10 +2021,10 @@
       <formula1>'matrix_deposition_method'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_matrix'!$A$1:$A$8</formula1>
@@ -2034,26 +2046,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2071,26 +2083,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2108,50 +2120,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2169,42 +2181,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +2226,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2222,74 +2234,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>435</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>436</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2327,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2307,146 +2335,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>262</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>263</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>340</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>442</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>443</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -2464,66 +2500,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -2547,30 +2583,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +2616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2984,6 +3020,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3001,130 +3045,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3142,12 +3186,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3165,242 +3209,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3418,618 +3462,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4047,42 +4091,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4100,26 +4144,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4137,50 +4181,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7">
@@ -4188,39 +4232,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="497">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -577,6 +577,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1726,7 +1732,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:41:54-08:00</t>
+    <t>2025-11-20T09:42:54-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1881,73 +1887,73 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2">
@@ -1955,7 +1961,7 @@
         <v>80</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +1970,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2046,26 +2052,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2083,26 +2089,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2120,50 +2126,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -2181,42 +2187,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -2234,90 +2240,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -2335,154 +2341,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -2500,66 +2506,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -2583,16 +2589,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2">
@@ -2600,13 +2606,13 @@
         <v>80</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -3037,7 +3043,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3169,6 +3175,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3186,12 +3200,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3209,242 +3223,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3462,474 +3476,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -3937,143 +3951,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4091,42 +4105,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4144,26 +4158,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4181,42 +4195,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
@@ -4224,7 +4238,7 @@
         <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7">
@@ -4232,39 +4246,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="511">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -550,6 +550,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
   </si>
   <si>
+    <t>Raman Imaging</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000475</t>
+  </si>
+  <si>
     <t>RNAseq (with probes)</t>
   </si>
   <si>
@@ -562,6 +568,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
+    <t>STARmap</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000476</t>
+  </si>
+  <si>
     <t>MPLEx</t>
   </si>
   <si>
@@ -835,6 +847,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Revvity</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027779</t>
+  </si>
+  <si>
     <t>Cytek Biosciences</t>
   </si>
   <si>
@@ -964,6 +982,12 @@
     <t>https://identifiers.org/RRID:SCR_026452</t>
   </si>
   <si>
+    <t>Opera Phenix Plus HCS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027780</t>
+  </si>
+  <si>
     <t>timsTOF Pro 2</t>
   </si>
   <si>
@@ -1006,6 +1030,12 @@
     <t>https://identifiers.org/RRID:SCR_027101</t>
   </si>
   <si>
+    <t>Orbitrap Fusion Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020559</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1132,6 +1162,12 @@
     <t>https://identifiers.org/RRID:SCR_027072</t>
   </si>
   <si>
+    <t>Zeiss LightSheet Z.1</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020919</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1273,6 +1309,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>SYNAPT G2-Si</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027782</t>
+  </si>
+  <si>
     <t>Biomark HD</t>
   </si>
   <si>
@@ -1732,7 +1774,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-20T09:42:54-08:00</t>
+    <t>2025-12-15T11:34:09-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1884,76 +1926,76 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>488</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2">
@@ -1961,13 +2003,13 @@
         <v>80</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$51</formula1>
+      <formula1>'dataset_type'!$A$1:$A$53</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$17</formula1>
@@ -1976,10 +2018,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$31</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$81</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2052,26 +2094,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -2089,26 +2131,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -2126,50 +2168,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -2187,42 +2229,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -2240,90 +2282,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -2341,154 +2383,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>449</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>451</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -2506,66 +2548,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>476</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2589,16 +2631,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>495</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2">
@@ -2606,13 +2648,13 @@
         <v>80</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>496</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +2664,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3034,6 +3076,22 @@
       </c>
       <c r="B51" t="s" s="0">
         <v>105</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3051,138 +3109,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3200,12 +3258,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3215,7 +3273,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3223,242 +3281,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3468,7 +3534,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3476,618 +3542,650 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>176</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>336</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4105,42 +4203,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4158,26 +4256,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4195,42 +4293,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
@@ -4238,7 +4336,7 @@
         <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
@@ -4246,39 +4344,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/maldi/v2.0.0/maldi-v2.0.0.xlsx
+++ b/maldi/v2.0.0/maldi-v2.0.0.xlsx
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="513">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -787,6 +787,12 @@
     <t>https://identifiers.org/RRID:SCR_023605</t>
   </si>
   <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024589</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
@@ -1774,7 +1780,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-12-15T11:34:09-08:00</t>
+    <t>2025-12-16T09:00:02-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1935,67 +1941,67 @@
         <v>148</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
@@ -2003,7 +2009,7 @@
         <v>80</v>
       </c>
       <c r="AB2" t="s" s="29">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +2024,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$31</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$32</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$81</formula1>
@@ -2094,26 +2100,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -2131,26 +2137,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2168,50 +2174,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -2229,42 +2235,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -2282,26 +2288,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
@@ -2314,34 +2320,34 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
@@ -2362,10 +2368,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -2383,154 +2389,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -2548,66 +2554,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2631,16 +2637,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2">
@@ -2648,13 +2654,13 @@
         <v>80</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3279,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3525,6 +3531,14 @@
       </c>
       <c r="B31" t="s" s="0">
         <v>210</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3542,498 +3556,498 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63">
@@ -4041,151 +4055,151 @@
         <v>70</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -4203,42 +4217,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4256,26 +4270,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4293,42 +4307,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6">
@@ -4336,7 +4350,7 @@
         <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
@@ -4344,39 +4358,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
